--- a/SOC/soc0612.xlsx
+++ b/SOC/soc0612.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>std_logic : 1bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>做終結果輸入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,6 +170,10 @@
   </si>
   <si>
     <t>Best_S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std_logic : 32bit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
     <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -610,7 +610,7 @@
     <row r="7" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -625,7 +625,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
     </row>
     <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
@@ -704,7 +704,7 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -719,7 +719,7 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -734,7 +734,7 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
@@ -743,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
     </row>
     <row r="29" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>14</v>
@@ -798,7 +798,7 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
@@ -813,7 +813,7 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
